--- a/TL_Trans_Results/TL_Trans_pvalues.xlsx
+++ b/TL_Trans_Results/TL_Trans_pvalues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/TL_Trans_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF127F6-F73B-4F40-A113-593877A74D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714830BB-6423-9D4D-9583-1D47AFDF3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="500" windowWidth="26740" windowHeight="14160" xr2:uid="{773D55E3-90DD-794D-B159-7903C038CDB0}"/>
+    <workbookView xWindow="12660" yWindow="500" windowWidth="19660" windowHeight="14120" xr2:uid="{773D55E3-90DD-794D-B159-7903C038CDB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t>Protein</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>Sym biomass</t>
+  </si>
+  <si>
+    <t>host biomass</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -164,30 +170,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACA2A5-3986-B84A-A238-CAFBA8686A92}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,30 +522,30 @@
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
     <col min="14" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -577,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -605,19 +607,19 @@
       <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="5">
         <v>0.21</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="5">
         <v>0.27</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -645,25 +647,25 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="5">
         <v>0.21</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1">
@@ -675,30 +677,30 @@
       <c r="E5" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.13</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>24</v>
+      <c r="N5" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -718,27 +720,27 @@
       <c r="F6">
         <v>0.52</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>0.73</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.52</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.73</v>
+        <v>9</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="O6" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -763,22 +765,22 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="O7" s="9">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -803,22 +805,22 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="P8" s="6">
-        <v>6.0999999999999999E-2</v>
+        <v>11</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -843,22 +845,22 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="O9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>25</v>
+      <c r="O9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -881,27 +883,29 @@
       <c r="G10" s="1">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -923,26 +927,24 @@
       <c r="G11" s="1">
         <v>3.4E-5</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="J11" s="7"/>
       <c r="K11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -967,22 +969,22 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1007,22 +1009,22 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1047,22 +1049,16 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0.95</v>
+        <v>26</v>
+      </c>
+      <c r="N14" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1079,7 +1075,7 @@
       <c r="E15">
         <v>0.15</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15" s="1">
@@ -1087,54 +1083,88 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <v>0.92</v>
+      </c>
+      <c r="P15">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L18" s="5">
         <v>0.35</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M18" s="5">
         <v>0.48</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N18" s="5">
         <v>0.15</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O18" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L20" s="5" t="s">
+    <row r="19" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L21" s="5" t="s">
+      <c r="O19" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L23" s="5" t="s">
+    <row r="20" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="J10:J15"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="J3:J10"/>
-    <mergeCell ref="J11:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TL_Trans_Results/TL_Trans_pvalues.xlsx
+++ b/TL_Trans_Results/TL_Trans_pvalues.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/TL_Trans_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714830BB-6423-9D4D-9583-1D47AFDF3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C8AAA-6CD7-354D-BE7F-095C304D9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="500" windowWidth="19660" windowHeight="14120" xr2:uid="{773D55E3-90DD-794D-B159-7903C038CDB0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="21400" windowHeight="14120" activeTab="1" xr2:uid="{773D55E3-90DD-794D-B159-7903C038CDB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T-test" sheetId="1" r:id="rId1"/>
+    <sheet name="Wilcoxins" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
     <t>Protein</t>
   </si>
@@ -120,22 +121,34 @@
   </si>
   <si>
     <t>host biomass</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>Cdi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,9 +202,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACA2A5-3986-B84A-A238-CAFBA8686A92}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,9 +552,9 @@
     <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1051,7 +1082,7 @@
       <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="O14" s="4" t="s">
@@ -1157,14 +1188,277 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="J3:J9"/>
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1331B928-6FA0-E248-8402-E46A55585815}">
+  <dimension ref="B1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.33288000000000001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="F8" s="13">
+        <v>9.5E-4</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.35588999999999998</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.64307999999999998</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.40819</v>
+      </c>
+      <c r="H9" s="8">
+        <v>4.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5.1090000000000003E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.78808</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.66190000000000004</v>
+      </c>
+      <c r="G10" s="17">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H10" s="13">
+        <v>8.5500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.10384</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.23613999999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.23164000000000001</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.83292999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.49187999999999998</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1.549E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3.8E-3</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2.3E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
